--- a/2_clone_classification/compare_changing_classifications.xlsx
+++ b/2_clone_classification/compare_changing_classifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$608</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$609</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -378,15 +378,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C608"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A608" sqref="A2:A608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -394,7 +394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -404,8 +404,12 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>IF(OR(AND(B2="AC",C2&lt;&gt;"AC"),AND(B2&lt;&gt;"AC",C2="AC")),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -415,8 +419,12 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">IF(OR(AND(B3="AC",C3&lt;&gt;"AC"),AND(B3&lt;&gt;"AC",C3="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -426,8 +434,12 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -437,8 +449,12 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -448,8 +464,12 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -459,8 +479,12 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -470,8 +494,12 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -481,8 +509,12 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -492,8 +524,12 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -503,8 +539,12 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -514,8 +554,12 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -525,8 +569,12 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -536,8 +584,12 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -547,8 +599,12 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -558,8 +614,12 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -569,8 +629,12 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -580,8 +644,12 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -591,8 +659,12 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -602,8 +674,12 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -613,8 +689,12 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -624,8 +704,12 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -635,8 +719,12 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -646,8 +734,12 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -657,8 +749,12 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -668,8 +764,12 @@
       <c r="C26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -679,8 +779,12 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -690,8 +794,12 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -701,8 +809,12 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -712,8 +824,12 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -723,8 +839,12 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -734,8 +854,12 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -745,8 +869,12 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -756,8 +884,12 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -767,8 +899,12 @@
       <c r="C35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -778,8 +914,12 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -789,8 +929,12 @@
       <c r="C37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -800,8 +944,12 @@
       <c r="C38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -811,8 +959,12 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -822,8 +974,12 @@
       <c r="C40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -833,8 +989,12 @@
       <c r="C41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -844,8 +1004,12 @@
       <c r="C42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -855,8 +1019,12 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -866,8 +1034,12 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -877,8 +1049,12 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -888,8 +1064,12 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -899,8 +1079,12 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -910,8 +1094,12 @@
       <c r="C48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -921,8 +1109,12 @@
       <c r="C49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -932,8 +1124,12 @@
       <c r="C50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -943,8 +1139,12 @@
       <c r="C51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -954,8 +1154,12 @@
       <c r="C52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -965,8 +1169,12 @@
       <c r="C53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1184,12 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -987,8 +1199,12 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1214,12 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1229,12 @@
       <c r="C57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1020,8 +1244,12 @@
       <c r="C58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1031,8 +1259,12 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1274,12 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1053,8 +1289,12 @@
       <c r="C61" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1064,8 +1304,12 @@
       <c r="C62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1319,12 @@
       <c r="C63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1334,12 @@
       <c r="C64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1097,8 +1349,12 @@
       <c r="C65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1364,12 @@
       <c r="C66" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1119,8 +1379,12 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">IF(OR(AND(B67="AC",C67&lt;&gt;"AC"),AND(B67&lt;&gt;"AC",C67="AC")),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1130,8 +1394,12 @@
       <c r="C68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1141,8 +1409,12 @@
       <c r="C69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1152,8 +1424,12 @@
       <c r="C70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1163,8 +1439,12 @@
       <c r="C71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1454,12 @@
       <c r="C72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1185,8 +1469,12 @@
       <c r="C73" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1196,8 +1484,12 @@
       <c r="C74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1499,12 @@
       <c r="C75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1218,8 +1514,12 @@
       <c r="C76" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1229,8 +1529,12 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1240,8 +1544,12 @@
       <c r="C78" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1251,8 +1559,12 @@
       <c r="C79" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -1262,8 +1574,12 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1273,8 +1589,12 @@
       <c r="C81" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1284,8 +1604,12 @@
       <c r="C82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1295,8 +1619,12 @@
       <c r="C83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1306,8 +1634,12 @@
       <c r="C84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1317,8 +1649,12 @@
       <c r="C85" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -1328,8 +1664,12 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -1339,8 +1679,12 @@
       <c r="C87" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +1694,12 @@
       <c r="C88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1361,8 +1709,12 @@
       <c r="C89" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1372,8 +1724,12 @@
       <c r="C90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -1383,8 +1739,12 @@
       <c r="C91" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -1394,8 +1754,12 @@
       <c r="C92" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -1405,8 +1769,12 @@
       <c r="C93" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -1416,8 +1784,12 @@
       <c r="C94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -1427,8 +1799,12 @@
       <c r="C95" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -1438,8 +1814,12 @@
       <c r="C96" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -1449,8 +1829,12 @@
       <c r="C97" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -1460,8 +1844,12 @@
       <c r="C98" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -1471,8 +1859,12 @@
       <c r="C99" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -1482,8 +1874,12 @@
       <c r="C100" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -1493,8 +1889,12 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -1504,8 +1904,12 @@
       <c r="C102" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -1515,8 +1919,12 @@
       <c r="C103" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1526,8 +1934,12 @@
       <c r="C104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -1537,8 +1949,12 @@
       <c r="C105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -1548,8 +1964,12 @@
       <c r="C106" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -1559,8 +1979,12 @@
       <c r="C107" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -1570,8 +1994,12 @@
       <c r="C108" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -1581,8 +2009,12 @@
       <c r="C109" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -1592,8 +2024,12 @@
       <c r="C110" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -1603,8 +2039,12 @@
       <c r="C111" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -1614,8 +2054,12 @@
       <c r="C112" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -1625,8 +2069,12 @@
       <c r="C113" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -1636,8 +2084,12 @@
       <c r="C114" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -1647,8 +2099,12 @@
       <c r="C115" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -1658,8 +2114,12 @@
       <c r="C116" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -1669,8 +2129,12 @@
       <c r="C117" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -1680,8 +2144,12 @@
       <c r="C118" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -1691,8 +2159,12 @@
       <c r="C119" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -1702,8 +2174,12 @@
       <c r="C120" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -1713,8 +2189,12 @@
       <c r="C121" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -1724,8 +2204,12 @@
       <c r="C122" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -1735,8 +2219,12 @@
       <c r="C123" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -1746,8 +2234,12 @@
       <c r="C124" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -1757,8 +2249,12 @@
       <c r="C125" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -1768,8 +2264,12 @@
       <c r="C126" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -1779,8 +2279,12 @@
       <c r="C127" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -1790,8 +2294,12 @@
       <c r="C128" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -1801,8 +2309,12 @@
       <c r="C129" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +2324,12 @@
       <c r="C130" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -1823,8 +2339,12 @@
       <c r="C131" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">IF(OR(AND(B131="AC",C131&lt;&gt;"AC"),AND(B131&lt;&gt;"AC",C131="AC")),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -1834,8 +2354,12 @@
       <c r="C132" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -1845,8 +2369,12 @@
       <c r="C133" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -1856,8 +2384,12 @@
       <c r="C134" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -1867,8 +2399,12 @@
       <c r="C135" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -1878,8 +2414,12 @@
       <c r="C136" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -1889,8 +2429,12 @@
       <c r="C137" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -1900,8 +2444,12 @@
       <c r="C138" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -1911,8 +2459,12 @@
       <c r="C139" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +2474,12 @@
       <c r="C140" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -1933,8 +2489,12 @@
       <c r="C141" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -1944,8 +2504,12 @@
       <c r="C142" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -1955,8 +2519,12 @@
       <c r="C143" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -1966,8 +2534,12 @@
       <c r="C144" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -1977,8 +2549,12 @@
       <c r="C145" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -1988,8 +2564,12 @@
       <c r="C146" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -1999,8 +2579,12 @@
       <c r="C147" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -2010,8 +2594,12 @@
       <c r="C148" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -2021,8 +2609,12 @@
       <c r="C149" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -2032,8 +2624,12 @@
       <c r="C150" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -2043,8 +2639,12 @@
       <c r="C151" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -2054,8 +2654,12 @@
       <c r="C152" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -2065,8 +2669,12 @@
       <c r="C153" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2076,8 +2684,12 @@
       <c r="C154" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -2087,8 +2699,12 @@
       <c r="C155" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -2098,8 +2714,12 @@
       <c r="C156" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2109,8 +2729,12 @@
       <c r="C157" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2120,8 +2744,12 @@
       <c r="C158" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -2131,8 +2759,12 @@
       <c r="C159" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -2142,8 +2774,12 @@
       <c r="C160" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -2153,8 +2789,12 @@
       <c r="C161" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -2164,8 +2804,12 @@
       <c r="C162" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2175,8 +2819,12 @@
       <c r="C163" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2186,8 +2834,12 @@
       <c r="C164" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -2197,8 +2849,12 @@
       <c r="C165" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -2208,8 +2864,12 @@
       <c r="C166" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -2219,8 +2879,12 @@
       <c r="C167" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -2230,8 +2894,12 @@
       <c r="C168" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -2241,8 +2909,12 @@
       <c r="C169" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -2252,8 +2924,12 @@
       <c r="C170" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -2263,8 +2939,12 @@
       <c r="C171" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -2274,8 +2954,12 @@
       <c r="C172" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -2285,8 +2969,12 @@
       <c r="C173" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -2296,8 +2984,12 @@
       <c r="C174" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -2307,8 +2999,12 @@
       <c r="C175" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -2318,8 +3014,12 @@
       <c r="C176" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -2329,8 +3029,12 @@
       <c r="C177" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -2340,8 +3044,12 @@
       <c r="C178" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -2351,8 +3059,12 @@
       <c r="C179" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -2362,8 +3074,12 @@
       <c r="C180" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -2373,8 +3089,12 @@
       <c r="C181" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -2384,8 +3104,12 @@
       <c r="C182" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -2395,8 +3119,12 @@
       <c r="C183" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -2406,8 +3134,12 @@
       <c r="C184" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -2417,8 +3149,12 @@
       <c r="C185" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -2428,8 +3164,12 @@
       <c r="C186" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +3179,12 @@
       <c r="C187" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -2450,8 +3194,12 @@
       <c r="C188" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -2461,8 +3209,12 @@
       <c r="C189" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -2472,8 +3224,12 @@
       <c r="C190" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -2483,8 +3239,12 @@
       <c r="C191" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -2494,8 +3254,12 @@
       <c r="C192" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -2505,8 +3269,12 @@
       <c r="C193" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -2516,8 +3284,12 @@
       <c r="C194" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -2527,8 +3299,12 @@
       <c r="C195" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="3">IF(OR(AND(B195="AC",C195&lt;&gt;"AC"),AND(B195&lt;&gt;"AC",C195="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -2538,8 +3314,12 @@
       <c r="C196" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -2549,8 +3329,12 @@
       <c r="C197" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -2560,8 +3344,12 @@
       <c r="C198" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -2571,8 +3359,12 @@
       <c r="C199" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +3374,12 @@
       <c r="C200" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -2593,8 +3389,12 @@
       <c r="C201" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -2604,8 +3404,12 @@
       <c r="C202" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -2615,8 +3419,12 @@
       <c r="C203" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -2626,8 +3434,12 @@
       <c r="C204" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -2637,8 +3449,12 @@
       <c r="C205" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -2648,8 +3464,12 @@
       <c r="C206" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +3479,12 @@
       <c r="C207" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -2670,8 +3494,12 @@
       <c r="C208" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -2681,8 +3509,12 @@
       <c r="C209" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -2692,8 +3524,12 @@
       <c r="C210" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -2703,8 +3539,12 @@
       <c r="C211" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -2714,8 +3554,12 @@
       <c r="C212" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -2725,8 +3569,12 @@
       <c r="C213" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -2736,8 +3584,12 @@
       <c r="C214" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -2747,8 +3599,12 @@
       <c r="C215" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -2758,8 +3614,12 @@
       <c r="C216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -2769,8 +3629,12 @@
       <c r="C217" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -2780,8 +3644,12 @@
       <c r="C218" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -2791,8 +3659,12 @@
       <c r="C219" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -2802,8 +3674,12 @@
       <c r="C220" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -2813,8 +3689,12 @@
       <c r="C221" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -2824,8 +3704,12 @@
       <c r="C222" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -2835,8 +3719,12 @@
       <c r="C223" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -2846,8 +3734,12 @@
       <c r="C224" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -2857,8 +3749,12 @@
       <c r="C225" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -2868,8 +3764,12 @@
       <c r="C226" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -2879,8 +3779,12 @@
       <c r="C227" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -2890,8 +3794,12 @@
       <c r="C228" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -2901,8 +3809,12 @@
       <c r="C229" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -2912,8 +3824,12 @@
       <c r="C230" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -2923,8 +3839,12 @@
       <c r="C231" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -2934,8 +3854,12 @@
       <c r="C232" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -2945,8 +3869,12 @@
       <c r="C233" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -2956,8 +3884,12 @@
       <c r="C234" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -2967,8 +3899,12 @@
       <c r="C235" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -2978,8 +3914,12 @@
       <c r="C236" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -2989,8 +3929,12 @@
       <c r="C237" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -3000,8 +3944,12 @@
       <c r="C238" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -3011,8 +3959,12 @@
       <c r="C239" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -3022,8 +3974,12 @@
       <c r="C240" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -3033,8 +3989,12 @@
       <c r="C241" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -3044,8 +4004,12 @@
       <c r="C242" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -3055,8 +4019,12 @@
       <c r="C243" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -3066,8 +4034,12 @@
       <c r="C244" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -3077,8 +4049,12 @@
       <c r="C245" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -3088,8 +4064,12 @@
       <c r="C246" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -3099,8 +4079,12 @@
       <c r="C247" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -3110,8 +4094,12 @@
       <c r="C248" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -3121,8 +4109,12 @@
       <c r="C249" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -3132,8 +4124,12 @@
       <c r="C250" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -3143,8 +4139,12 @@
       <c r="C251" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -3154,8 +4154,12 @@
       <c r="C252" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -3165,8 +4169,12 @@
       <c r="C253" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -3176,8 +4184,12 @@
       <c r="C254" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -3187,8 +4199,12 @@
       <c r="C255" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -3198,8 +4214,12 @@
       <c r="C256" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -3209,8 +4229,12 @@
       <c r="C257" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -3220,8 +4244,12 @@
       <c r="C258" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -3231,8 +4259,12 @@
       <c r="C259" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <f t="shared" ref="D259:D322" si="4">IF(OR(AND(B259="AC",C259&lt;&gt;"AC"),AND(B259&lt;&gt;"AC",C259="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -3242,8 +4274,12 @@
       <c r="C260" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -3253,8 +4289,12 @@
       <c r="C261" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -3264,8 +4304,12 @@
       <c r="C262" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -3275,8 +4319,12 @@
       <c r="C263" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -3286,8 +4334,12 @@
       <c r="C264" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -3297,8 +4349,12 @@
       <c r="C265" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -3308,8 +4364,12 @@
       <c r="C266" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -3319,8 +4379,12 @@
       <c r="C267" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -3330,8 +4394,12 @@
       <c r="C268" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -3341,8 +4409,12 @@
       <c r="C269" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -3352,8 +4424,12 @@
       <c r="C270" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -3363,8 +4439,12 @@
       <c r="C271" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -3374,8 +4454,12 @@
       <c r="C272" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -3385,8 +4469,12 @@
       <c r="C273" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -3396,8 +4484,12 @@
       <c r="C274" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -3407,8 +4499,12 @@
       <c r="C275" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -3418,8 +4514,12 @@
       <c r="C276" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -3429,8 +4529,12 @@
       <c r="C277" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -3440,8 +4544,12 @@
       <c r="C278" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -3451,8 +4559,12 @@
       <c r="C279" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -3462,8 +4574,12 @@
       <c r="C280" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -3473,8 +4589,12 @@
       <c r="C281" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -3484,8 +4604,12 @@
       <c r="C282" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -3495,8 +4619,12 @@
       <c r="C283" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -3506,8 +4634,12 @@
       <c r="C284" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -3517,8 +4649,12 @@
       <c r="C285" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -3528,8 +4664,12 @@
       <c r="C286" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -3539,8 +4679,12 @@
       <c r="C287" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -3550,8 +4694,12 @@
       <c r="C288" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -3561,8 +4709,12 @@
       <c r="C289" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -3572,8 +4724,12 @@
       <c r="C290" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -3583,8 +4739,12 @@
       <c r="C291" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -3594,8 +4754,12 @@
       <c r="C292" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -3605,8 +4769,12 @@
       <c r="C293" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -3616,8 +4784,12 @@
       <c r="C294" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -3627,8 +4799,12 @@
       <c r="C295" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -3638,8 +4814,12 @@
       <c r="C296" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -3649,8 +4829,12 @@
       <c r="C297" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -3660,8 +4844,12 @@
       <c r="C298" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -3671,8 +4859,12 @@
       <c r="C299" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>9</v>
       </c>
@@ -3682,8 +4874,12 @@
       <c r="C300" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -3693,8 +4889,12 @@
       <c r="C301" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -3704,8 +4904,12 @@
       <c r="C302" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -3715,8 +4919,12 @@
       <c r="C303" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -3726,8 +4934,12 @@
       <c r="C304" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -3737,8 +4949,12 @@
       <c r="C305" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -3748,8 +4964,12 @@
       <c r="C306" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -3759,8 +4979,12 @@
       <c r="C307" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -3770,8 +4994,12 @@
       <c r="C308" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -3781,8 +5009,12 @@
       <c r="C309" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>9</v>
       </c>
@@ -3792,8 +5024,12 @@
       <c r="C310" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -3803,8 +5039,12 @@
       <c r="C311" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -3814,8 +5054,12 @@
       <c r="C312" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -3825,8 +5069,12 @@
       <c r="C313" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -3836,8 +5084,12 @@
       <c r="C314" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -3847,8 +5099,12 @@
       <c r="C315" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -3858,8 +5114,12 @@
       <c r="C316" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -3869,8 +5129,12 @@
       <c r="C317" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -3880,8 +5144,12 @@
       <c r="C318" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -3891,8 +5159,12 @@
       <c r="C319" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -3902,8 +5174,12 @@
       <c r="C320" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -3913,8 +5189,12 @@
       <c r="C321" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -3924,8 +5204,12 @@
       <c r="C322" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -3935,8 +5219,12 @@
       <c r="C323" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <f t="shared" ref="D323:D386" si="5">IF(OR(AND(B323="AC",C323&lt;&gt;"AC"),AND(B323&lt;&gt;"AC",C323="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -3946,8 +5234,12 @@
       <c r="C324" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -3957,8 +5249,12 @@
       <c r="C325" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -3968,8 +5264,12 @@
       <c r="C326" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -3979,8 +5279,12 @@
       <c r="C327" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -3990,8 +5294,12 @@
       <c r="C328" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -4001,8 +5309,12 @@
       <c r="C329" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -4012,8 +5324,12 @@
       <c r="C330" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -4023,8 +5339,12 @@
       <c r="C331" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -4034,8 +5354,12 @@
       <c r="C332" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -4045,8 +5369,12 @@
       <c r="C333" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -4056,8 +5384,12 @@
       <c r="C334" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -4067,8 +5399,12 @@
       <c r="C335" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -4078,8 +5414,12 @@
       <c r="C336" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -4089,8 +5429,12 @@
       <c r="C337" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -4100,8 +5444,12 @@
       <c r="C338" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -4111,8 +5459,12 @@
       <c r="C339" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -4122,8 +5474,12 @@
       <c r="C340" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -4133,8 +5489,12 @@
       <c r="C341" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -4144,8 +5504,12 @@
       <c r="C342" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -4155,8 +5519,12 @@
       <c r="C343" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -4166,8 +5534,12 @@
       <c r="C344" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -4177,8 +5549,12 @@
       <c r="C345" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -4188,8 +5564,12 @@
       <c r="C346" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -4199,8 +5579,12 @@
       <c r="C347" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -4210,8 +5594,12 @@
       <c r="C348" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -4221,8 +5609,12 @@
       <c r="C349" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -4232,8 +5624,12 @@
       <c r="C350" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -4243,8 +5639,12 @@
       <c r="C351" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -4254,8 +5654,12 @@
       <c r="C352" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -4265,8 +5669,12 @@
       <c r="C353" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -4276,8 +5684,12 @@
       <c r="C354" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -4287,8 +5699,12 @@
       <c r="C355" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -4298,8 +5714,12 @@
       <c r="C356" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -4309,8 +5729,12 @@
       <c r="C357" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -4320,8 +5744,12 @@
       <c r="C358" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -4331,8 +5759,12 @@
       <c r="C359" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -4342,8 +5774,12 @@
       <c r="C360" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -4353,8 +5789,12 @@
       <c r="C361" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -4364,8 +5804,12 @@
       <c r="C362" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -4375,8 +5819,12 @@
       <c r="C363" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -4386,8 +5834,12 @@
       <c r="C364" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -4397,8 +5849,12 @@
       <c r="C365" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -4408,8 +5864,12 @@
       <c r="C366" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -4419,8 +5879,12 @@
       <c r="C367" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -4430,8 +5894,12 @@
       <c r="C368" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -4441,8 +5909,12 @@
       <c r="C369" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -4452,8 +5924,12 @@
       <c r="C370" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -4463,8 +5939,12 @@
       <c r="C371" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -4474,8 +5954,12 @@
       <c r="C372" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -4485,8 +5969,12 @@
       <c r="C373" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -4496,8 +5984,12 @@
       <c r="C374" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -4507,8 +5999,12 @@
       <c r="C375" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -4518,8 +6014,12 @@
       <c r="C376" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -4529,8 +6029,12 @@
       <c r="C377" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -4540,8 +6044,12 @@
       <c r="C378" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -4551,8 +6059,12 @@
       <c r="C379" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -4562,8 +6074,12 @@
       <c r="C380" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -4573,8 +6089,12 @@
       <c r="C381" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D381">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -4584,8 +6104,12 @@
       <c r="C382" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D382">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -4595,8 +6119,12 @@
       <c r="C383" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D383">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -4606,8 +6134,12 @@
       <c r="C384" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D384">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -4617,8 +6149,12 @@
       <c r="C385" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D385">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -4628,8 +6164,12 @@
       <c r="C386" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D386">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -4639,8 +6179,12 @@
       <c r="C387" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D387">
+        <f t="shared" ref="D387:D450" si="6">IF(OR(AND(B387="AC",C387&lt;&gt;"AC"),AND(B387&lt;&gt;"AC",C387="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -4650,8 +6194,12 @@
       <c r="C388" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D388">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -4661,8 +6209,12 @@
       <c r="C389" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D389">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -4672,8 +6224,12 @@
       <c r="C390" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D390">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -4683,8 +6239,12 @@
       <c r="C391" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D391">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -4694,8 +6254,12 @@
       <c r="C392" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -4705,8 +6269,12 @@
       <c r="C393" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -4716,8 +6284,12 @@
       <c r="C394" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -4727,8 +6299,12 @@
       <c r="C395" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D395">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -4738,8 +6314,12 @@
       <c r="C396" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D396">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -4749,8 +6329,12 @@
       <c r="C397" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D397">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -4760,8 +6344,12 @@
       <c r="C398" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D398">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -4771,8 +6359,12 @@
       <c r="C399" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D399">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -4782,8 +6374,12 @@
       <c r="C400" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D400">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -4793,8 +6389,12 @@
       <c r="C401" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D401">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -4804,8 +6404,12 @@
       <c r="C402" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D402">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -4815,8 +6419,12 @@
       <c r="C403" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D403">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -4826,8 +6434,12 @@
       <c r="C404" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D404">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -4837,8 +6449,12 @@
       <c r="C405" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -4848,8 +6464,12 @@
       <c r="C406" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D406">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -4859,8 +6479,12 @@
       <c r="C407" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D407">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -4870,8 +6494,12 @@
       <c r="C408" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D408">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -4881,8 +6509,12 @@
       <c r="C409" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D409">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -4892,8 +6524,12 @@
       <c r="C410" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D410">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -4903,8 +6539,12 @@
       <c r="C411" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D411">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -4914,8 +6554,12 @@
       <c r="C412" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D412">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -4925,8 +6569,12 @@
       <c r="C413" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D413">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -4936,8 +6584,12 @@
       <c r="C414" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D414">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -4947,8 +6599,12 @@
       <c r="C415" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D415">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -4958,8 +6614,12 @@
       <c r="C416" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D416">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -4969,8 +6629,12 @@
       <c r="C417" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D417">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -4980,8 +6644,12 @@
       <c r="C418" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D418">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -4991,8 +6659,12 @@
       <c r="C419" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D419">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -5002,8 +6674,12 @@
       <c r="C420" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D420">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -5013,8 +6689,12 @@
       <c r="C421" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D421">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -5024,8 +6704,12 @@
       <c r="C422" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D422">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -5035,8 +6719,12 @@
       <c r="C423" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D423">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -5046,8 +6734,12 @@
       <c r="C424" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D424">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -5057,8 +6749,12 @@
       <c r="C425" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D425">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -5068,8 +6764,12 @@
       <c r="C426" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D426">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -5079,8 +6779,12 @@
       <c r="C427" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D427">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -5090,8 +6794,12 @@
       <c r="C428" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D428">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -5101,8 +6809,12 @@
       <c r="C429" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D429">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -5112,8 +6824,12 @@
       <c r="C430" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D430">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -5123,8 +6839,12 @@
       <c r="C431" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D431">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -5134,8 +6854,12 @@
       <c r="C432" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D432">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -5145,8 +6869,12 @@
       <c r="C433" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D433">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -5156,8 +6884,12 @@
       <c r="C434" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D434">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -5167,8 +6899,12 @@
       <c r="C435" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D435">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -5178,8 +6914,12 @@
       <c r="C436" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D436">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -5189,8 +6929,12 @@
       <c r="C437" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D437">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -5200,8 +6944,12 @@
       <c r="C438" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D438">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -5211,8 +6959,12 @@
       <c r="C439" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D439">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -5222,8 +6974,12 @@
       <c r="C440" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D440">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -5233,8 +6989,12 @@
       <c r="C441" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D441">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -5244,8 +7004,12 @@
       <c r="C442" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D442">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -5255,8 +7019,12 @@
       <c r="C443" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D443">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -5266,8 +7034,12 @@
       <c r="C444" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D444">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -5277,8 +7049,12 @@
       <c r="C445" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D445">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -5288,8 +7064,12 @@
       <c r="C446" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D446">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -5299,8 +7079,12 @@
       <c r="C447" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D447">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -5310,8 +7094,12 @@
       <c r="C448" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D448">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -5321,8 +7109,12 @@
       <c r="C449" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D449">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -5332,8 +7124,12 @@
       <c r="C450" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D450">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -5343,8 +7139,12 @@
       <c r="C451" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D451">
+        <f t="shared" ref="D451:D514" si="7">IF(OR(AND(B451="AC",C451&lt;&gt;"AC"),AND(B451&lt;&gt;"AC",C451="AC")),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -5354,8 +7154,12 @@
       <c r="C452" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D452">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -5365,8 +7169,12 @@
       <c r="C453" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D453">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -5376,8 +7184,12 @@
       <c r="C454" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D454">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -5387,8 +7199,12 @@
       <c r="C455" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D455">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -5398,8 +7214,12 @@
       <c r="C456" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D456">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -5409,8 +7229,12 @@
       <c r="C457" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D457">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -5420,8 +7244,12 @@
       <c r="C458" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D458">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -5431,8 +7259,12 @@
       <c r="C459" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D459">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -5442,8 +7274,12 @@
       <c r="C460" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D460">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -5453,8 +7289,12 @@
       <c r="C461" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D461">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -5464,8 +7304,12 @@
       <c r="C462" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D462">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -5475,8 +7319,12 @@
       <c r="C463" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D463">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -5486,8 +7334,12 @@
       <c r="C464" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D464">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -5497,8 +7349,12 @@
       <c r="C465" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D465">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -5508,8 +7364,12 @@
       <c r="C466" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D466">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -5519,8 +7379,12 @@
       <c r="C467" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D467">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -5530,8 +7394,12 @@
       <c r="C468" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D468">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -5541,8 +7409,12 @@
       <c r="C469" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D469">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -5552,8 +7424,12 @@
       <c r="C470" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D470">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -5563,8 +7439,12 @@
       <c r="C471" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D471">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -5574,8 +7454,12 @@
       <c r="C472" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D472">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -5585,8 +7469,12 @@
       <c r="C473" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D473">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -5596,8 +7484,12 @@
       <c r="C474" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D474">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -5607,8 +7499,12 @@
       <c r="C475" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D475">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -5618,8 +7514,12 @@
       <c r="C476" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D476">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -5629,8 +7529,12 @@
       <c r="C477" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D477">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -5640,8 +7544,12 @@
       <c r="C478" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D478">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -5651,8 +7559,12 @@
       <c r="C479" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D479">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -5662,8 +7574,12 @@
       <c r="C480" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D480">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -5673,8 +7589,12 @@
       <c r="C481" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D481">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -5684,8 +7604,12 @@
       <c r="C482" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D482">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -5695,8 +7619,12 @@
       <c r="C483" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D483">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -5706,8 +7634,12 @@
       <c r="C484" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D484">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>9</v>
       </c>
@@ -5717,8 +7649,12 @@
       <c r="C485" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D485">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>9</v>
       </c>
@@ -5728,8 +7664,12 @@
       <c r="C486" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D486">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -5739,8 +7679,12 @@
       <c r="C487" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D487">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -5750,8 +7694,12 @@
       <c r="C488" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -5761,8 +7709,12 @@
       <c r="C489" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D489">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -5772,8 +7724,12 @@
       <c r="C490" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -5783,8 +7739,12 @@
       <c r="C491" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -5794,8 +7754,12 @@
       <c r="C492" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D492">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -5805,8 +7769,12 @@
       <c r="C493" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D493">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -5816,8 +7784,12 @@
       <c r="C494" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -5827,8 +7799,12 @@
       <c r="C495" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -5838,8 +7814,12 @@
       <c r="C496" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D496">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -5849,8 +7829,12 @@
       <c r="C497" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -5860,8 +7844,12 @@
       <c r="C498" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -5871,8 +7859,12 @@
       <c r="C499" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -5882,8 +7874,12 @@
       <c r="C500" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -5893,8 +7889,12 @@
       <c r="C501" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D501">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -5904,8 +7904,12 @@
       <c r="C502" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D502">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -5915,8 +7919,12 @@
       <c r="C503" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D503">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -5926,8 +7934,12 @@
       <c r="C504" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D504">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -5937,8 +7949,12 @@
       <c r="C505" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D505">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -5948,8 +7964,12 @@
       <c r="C506" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D506">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -5959,8 +7979,12 @@
       <c r="C507" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D507">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -5970,8 +7994,12 @@
       <c r="C508" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D508">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -5981,8 +8009,12 @@
       <c r="C509" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D509">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -5992,8 +8024,12 @@
       <c r="C510" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D510">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>9</v>
       </c>
@@ -6003,8 +8039,12 @@
       <c r="C511" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D511">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -6014,8 +8054,12 @@
       <c r="C512" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D512">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -6025,8 +8069,12 @@
       <c r="C513" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D513">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -6036,8 +8084,12 @@
       <c r="C514" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D514">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -6047,8 +8099,12 @@
       <c r="C515" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D515">
+        <f t="shared" ref="D515:D578" si="8">IF(OR(AND(B515="AC",C515&lt;&gt;"AC"),AND(B515&lt;&gt;"AC",C515="AC")),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -6058,8 +8114,12 @@
       <c r="C516" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D516">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -6069,8 +8129,12 @@
       <c r="C517" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D517">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -6080,8 +8144,12 @@
       <c r="C518" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D518">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -6091,8 +8159,12 @@
       <c r="C519" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D519">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -6102,8 +8174,12 @@
       <c r="C520" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D520">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -6113,8 +8189,12 @@
       <c r="C521" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D521">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -6124,8 +8204,12 @@
       <c r="C522" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D522">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -6135,8 +8219,12 @@
       <c r="C523" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D523">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -6146,8 +8234,12 @@
       <c r="C524" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D524">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -6157,8 +8249,12 @@
       <c r="C525" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D525">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -6168,8 +8264,12 @@
       <c r="C526" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D526">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -6179,8 +8279,12 @@
       <c r="C527" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D527">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -6190,8 +8294,12 @@
       <c r="C528" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D528">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -6201,8 +8309,12 @@
       <c r="C529" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D529">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -6212,8 +8324,12 @@
       <c r="C530" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D530">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -6223,8 +8339,12 @@
       <c r="C531" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D531">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -6234,8 +8354,12 @@
       <c r="C532" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D532">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>9</v>
       </c>
@@ -6245,8 +8369,12 @@
       <c r="C533" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D533">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -6256,8 +8384,12 @@
       <c r="C534" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D534">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -6267,8 +8399,12 @@
       <c r="C535" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D535">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -6278,8 +8414,12 @@
       <c r="C536" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D536">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -6289,8 +8429,12 @@
       <c r="C537" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D537">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -6300,8 +8444,12 @@
       <c r="C538" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D538">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -6311,8 +8459,12 @@
       <c r="C539" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D539">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -6322,8 +8474,12 @@
       <c r="C540" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D540">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -6333,8 +8489,12 @@
       <c r="C541" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D541">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -6344,8 +8504,12 @@
       <c r="C542" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D542">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -6355,8 +8519,12 @@
       <c r="C543" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D543">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -6366,8 +8534,12 @@
       <c r="C544" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D544">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -6377,8 +8549,12 @@
       <c r="C545" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D545">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -6388,8 +8564,12 @@
       <c r="C546" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D546">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -6399,8 +8579,12 @@
       <c r="C547" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D547">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -6410,8 +8594,12 @@
       <c r="C548" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D548">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>9</v>
       </c>
@@ -6421,8 +8609,12 @@
       <c r="C549" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D549">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -6432,8 +8624,12 @@
       <c r="C550" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D550">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -6443,8 +8639,12 @@
       <c r="C551" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D551">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -6454,8 +8654,12 @@
       <c r="C552" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D552">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -6465,8 +8669,12 @@
       <c r="C553" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D553">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -6476,8 +8684,12 @@
       <c r="C554" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D554">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -6487,8 +8699,12 @@
       <c r="C555" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D555">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>9</v>
       </c>
@@ -6498,8 +8714,12 @@
       <c r="C556" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D556">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -6509,8 +8729,12 @@
       <c r="C557" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D557">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -6520,8 +8744,12 @@
       <c r="C558" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D558">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -6531,8 +8759,12 @@
       <c r="C559" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D559">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -6542,8 +8774,12 @@
       <c r="C560" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D560">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -6553,8 +8789,12 @@
       <c r="C561" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D561">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -6564,8 +8804,12 @@
       <c r="C562" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -6575,8 +8819,12 @@
       <c r="C563" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -6586,8 +8834,12 @@
       <c r="C564" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -6597,8 +8849,12 @@
       <c r="C565" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>9</v>
       </c>
@@ -6608,8 +8864,12 @@
       <c r="C566" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D566">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -6619,8 +8879,12 @@
       <c r="C567" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D567">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -6630,8 +8894,12 @@
       <c r="C568" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D568">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -6641,8 +8909,12 @@
       <c r="C569" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D569">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>9</v>
       </c>
@@ -6652,8 +8924,12 @@
       <c r="C570" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D570">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -6663,8 +8939,12 @@
       <c r="C571" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D571">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>10</v>
       </c>
@@ -6674,8 +8954,12 @@
       <c r="C572" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D572">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>10</v>
       </c>
@@ -6685,8 +8969,12 @@
       <c r="C573" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D573">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -6696,8 +8984,12 @@
       <c r="C574" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D574">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>10</v>
       </c>
@@ -6707,8 +8999,12 @@
       <c r="C575" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D575">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -6718,8 +9014,12 @@
       <c r="C576" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D576">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -6729,8 +9029,12 @@
       <c r="C577" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D577">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -6740,8 +9044,12 @@
       <c r="C578" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D578">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -6751,8 +9059,12 @@
       <c r="C579" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D579">
+        <f t="shared" ref="D579:D608" si="9">IF(OR(AND(B579="AC",C579&lt;&gt;"AC"),AND(B579&lt;&gt;"AC",C579="AC")),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -6762,8 +9074,12 @@
       <c r="C580" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D580">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -6773,8 +9089,12 @@
       <c r="C581" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D581">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -6784,8 +9104,12 @@
       <c r="C582" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D582">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -6795,8 +9119,12 @@
       <c r="C583" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D583">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -6806,8 +9134,12 @@
       <c r="C584" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D584">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -6817,8 +9149,12 @@
       <c r="C585" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D585">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -6828,8 +9164,12 @@
       <c r="C586" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D586">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -6839,8 +9179,12 @@
       <c r="C587" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D587">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -6850,8 +9194,12 @@
       <c r="C588" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D588">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -6861,8 +9209,12 @@
       <c r="C589" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D589">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -6872,8 +9224,12 @@
       <c r="C590" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D590">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -6883,8 +9239,12 @@
       <c r="C591" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D591">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -6894,8 +9254,12 @@
       <c r="C592" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D592">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6905,8 +9269,12 @@
       <c r="C593" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D593">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6916,8 +9284,12 @@
       <c r="C594" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D594">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6927,8 +9299,12 @@
       <c r="C595" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D595">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -6938,8 +9314,12 @@
       <c r="C596" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D596">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -6949,8 +9329,12 @@
       <c r="C597" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D597">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -6960,8 +9344,12 @@
       <c r="C598" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D598">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -6971,8 +9359,12 @@
       <c r="C599" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D599">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -6982,8 +9374,12 @@
       <c r="C600" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D600">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -6993,8 +9389,12 @@
       <c r="C601" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D601">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -7004,8 +9404,12 @@
       <c r="C602" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D602">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -7015,8 +9419,12 @@
       <c r="C603" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D603">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -7026,8 +9434,12 @@
       <c r="C604" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D604">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -7037,8 +9449,12 @@
       <c r="C605" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D605">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>10</v>
       </c>
@@ -7048,8 +9464,12 @@
       <c r="C606" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D606">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>10</v>
       </c>
@@ -7059,8 +9479,12 @@
       <c r="C607" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D607">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>10</v>
       </c>
@@ -7070,12 +9494,35 @@
       <c r="C608" t="s">
         <v>1</v>
       </c>
+      <c r="D608">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D609">
+        <f>SUM(D2:D608)</f>
+        <v>338</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C608">
+  <autoFilter ref="B1:C609">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="BP"/>
+        <filter val="EX"/>
+        <filter val="IN"/>
+        <filter val="QS"/>
+        <filter val="UD"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
         <filter val="BP"/>
+        <filter val="EX"/>
+        <filter val="IN"/>
+        <filter val="QS"/>
+        <filter val="UD"/>
       </filters>
     </filterColumn>
   </autoFilter>
